--- a/Mifos Automation Excels/Client/4089-CREATEACTIVECLIENT-DISBURSE2LOANS.xlsx
+++ b/Mifos Automation Excels/Client/4089-CREATEACTIVECLIENT-DISBURSE2LOANS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>submitloan</t>
   </si>
   <si>
-    <t>389-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-B-EarlyRePayment</t>
-  </si>
-  <si>
     <t>maximumallowedoutstandingbalance</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>submit</t>
+  </si>
+  <si>
+    <t>3500-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Reg-PERIODIC</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -211,7 +211,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -522,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
@@ -594,10 +593,10 @@
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +610,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -632,8 +631,8 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>29</v>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -653,32 +652,32 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10">
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="5">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="B8" s="6">
         <v>10000</v>
@@ -749,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -764,7 +763,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -779,8 +778,8 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>29</v>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -800,32 +799,32 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="10">
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="5">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="B9" s="6">
         <v>10000</v>
